--- a/biology/Botanique/Jardin_japonais_de_Dijon/Jardin_japonais_de_Dijon.xlsx
+++ b/biology/Botanique/Jardin_japonais_de_Dijon/Jardin_japonais_de_Dijon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin japonais également appelé parc du Suzon, est un parc public de la ville de Dijon, fruit d'une collaboration franco-japonaise avec Koshigaya, ville de la préfecture de Saitama[1],[2].
+Le jardin japonais également appelé parc du Suzon, est un parc public de la ville de Dijon, fruit d'une collaboration franco-japonaise avec Koshigaya, ville de la préfecture de Saitama,.
 En 2023, à l'occasion de la semaine du Japon, la ville de Dijon a décidé d'échanges avec la préfecture de Kumamoto et s'est lancé dans un programme de restauration et valorisation de son jardin.
 Elle est aujourd'hui membre de l'association française des jardins japonais.
 </t>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin est dédié à la contemplation, à la méditation et au repos. Le jardin, volontairement épuré, abrite une passerelle, une cascade, des rochers et des galets.
 De nombreux symboles culturels japonais sont repris dans ce jardin :
